--- a/data/trans_bre/P28A_3_R-Urba-trans_bre.xlsx
+++ b/data/trans_bre/P28A_3_R-Urba-trans_bre.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L11"/>
+  <dimension ref="A1:L12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -636,52 +636,52 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>0,44</t>
+          <t>-1,98</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>3,54</t>
+          <t>-1,52</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>-1,65</t>
+          <t>-0,83</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>5,03</t>
+          <t>0,87</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>6,74</t>
+          <t>1,22</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>1,31%</t>
+          <t>-18,1%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>15,8%</t>
+          <t>-21,47%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>-13,2%</t>
+          <t>-18,5%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>58,35%</t>
+          <t>28,1%</t>
         </is>
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>46,72%</t>
+          <t>23,12%</t>
         </is>
       </c>
     </row>
@@ -694,52 +694,52 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-8,93; 10,58</t>
+          <t>-5,25; 1,49</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-7,48; 13,8</t>
+          <t>-5,31; 1,07</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-7,42; 3,84</t>
+          <t>-2,91; 1,0</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-1,02; 10,9</t>
+          <t>-1,17; 2,7</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>0,57; 13,57</t>
+          <t>-1,04; 3,57</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-23,02; 37,0</t>
+          <t>-40,72; 16,2</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-26,62; 82,55</t>
+          <t>-53,4; 22,43</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-48,73; 42,54</t>
+          <t>-50,48; 31,16</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>-9,84; 189,97</t>
+          <t>-27,0; 131,66</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>1,3; 116,57</t>
+          <t>-15,19; 90,59</t>
         </is>
       </c>
     </row>
@@ -756,52 +756,52 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>10,85</t>
+          <t>0,52</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>-3,48</t>
+          <t>-4,86</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>8,33</t>
+          <t>1,6</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>4,7</t>
+          <t>0,96</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>8,14</t>
+          <t>0,37</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>39,04%</t>
+          <t>5,36%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>-15,1%</t>
+          <t>-52,55%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>83,61%</t>
+          <t>41,2%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>58,14%</t>
+          <t>32,75%</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>78,8%</t>
+          <t>10,51%</t>
         </is>
       </c>
     </row>
@@ -814,52 +814,52 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>0,78; 21,4</t>
+          <t>-2,82; 4,0</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-16,88; 7,58</t>
+          <t>-10,44; -1,36</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>1,07; 15,37</t>
+          <t>-0,87; 4,25</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-1,74; 11,13</t>
+          <t>-1,26; 3,24</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-3,08; 21,44</t>
+          <t>-2,77; 3,78</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>1,8; 96,68</t>
+          <t>-25,44; 51,31</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-53,69; 49,24</t>
+          <t>-74,7; -18,35</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>4,83; 224,62</t>
+          <t>-16,53; 161,47</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>-18,68; 226,62</t>
+          <t>-32,51; 164,85</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>-29,76; 366,01</t>
+          <t>-56,98; 197,02</t>
         </is>
       </c>
     </row>
@@ -876,22 +876,22 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>16,48</t>
+          <t>5,53</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>12,3</t>
+          <t>5,11</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>6,0</t>
+          <t>-0,64</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>14,49</t>
+          <t>3,84</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
@@ -901,22 +901,22 @@
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>72,44%</t>
+          <t>89,99%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>91,08%</t>
+          <t>142,0%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>34,18%</t>
+          <t>-10,37%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>127,53%</t>
+          <t>87,65%</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
@@ -934,22 +934,22 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-2,7; 36,94</t>
+          <t>-0,34; 12,27</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-7,79; 29,5</t>
+          <t>-0,66; 10,88</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-10,91; 22,95</t>
+          <t>-7,07; 4,38</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-5,57; 29,5</t>
+          <t>-3,64; 9,52</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
@@ -959,22 +959,22 @@
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-9,4; 321,49</t>
+          <t>-10,43; 336,65</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-44,47; 596,23</t>
+          <t>-25,59; 763,52</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-44,47; 220,97</t>
+          <t>-71,94; 142,71</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>-43,43; 655,07</t>
+          <t>-57,39; 526,15</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
@@ -996,52 +996,52 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>6,46</t>
+          <t>-0,09</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>1,69</t>
+          <t>-2,05</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>2,76</t>
+          <t>0,11</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>6,04</t>
+          <t>1,24</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>7,24</t>
+          <t>1,08</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>21,44%</t>
+          <t>-0,96%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>7,73%</t>
+          <t>-27,25%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>22,88%</t>
+          <t>2,55%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>68,97%</t>
+          <t>38,74%</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>53,74%</t>
+          <t>22,17%</t>
         </is>
       </c>
     </row>
@@ -1054,52 +1054,59 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-0,04; 13,0</t>
+          <t>-2,28; 1,98</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-5,78; 9,2</t>
+          <t>-4,67; 0,33</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-1,39; 7,04</t>
+          <t>-1,57; 1,54</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>2,09; 10,45</t>
+          <t>-0,25; 2,71</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>1,64; 13,52</t>
+          <t>-1,07; 3,01</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>0,13; 49,21</t>
+          <t>-21,07; 22,23</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-22,58; 54,84</t>
+          <t>-47,89; 7,79</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-9,83; 74,17</t>
+          <t>-28,69; 41,78</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>15,88; 150,42</t>
+          <t>-7,4; 118,1</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>9,46; 126,26</t>
+          <t>-17,52; 79,29</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
       </c>
     </row>

--- a/data/trans_bre/P28A_3_R-Urba-trans_bre.xlsx
+++ b/data/trans_bre/P28A_3_R-Urba-trans_bre.xlsx
@@ -16,7 +16,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="0.##"/>
+    <numFmt numFmtId="165" formatCode="0.##%"/>
+  </numFmts>
   <fonts count="2">
     <font>
       <name val="Calibri"/>
@@ -125,7 +128,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -138,6 +141,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -504,7 +513,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L12"/>
+  <dimension ref="A1:L16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -634,359 +643,235 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C4" s="2" t="inlineStr">
-        <is>
-          <t>-1,98</t>
-        </is>
-      </c>
-      <c r="D4" s="2" t="inlineStr">
-        <is>
-          <t>-1,52</t>
-        </is>
-      </c>
-      <c r="E4" s="2" t="inlineStr">
-        <is>
-          <t>-0,83</t>
-        </is>
-      </c>
-      <c r="F4" s="2" t="inlineStr">
-        <is>
-          <t>0,87</t>
-        </is>
-      </c>
-      <c r="G4" s="2" t="inlineStr">
-        <is>
-          <t>1,22</t>
-        </is>
-      </c>
-      <c r="H4" s="2" t="inlineStr">
-        <is>
-          <t>-18,1%</t>
-        </is>
-      </c>
-      <c r="I4" s="2" t="inlineStr">
-        <is>
-          <t>-21,47%</t>
-        </is>
-      </c>
-      <c r="J4" s="2" t="inlineStr">
-        <is>
-          <t>-18,5%</t>
-        </is>
-      </c>
-      <c r="K4" s="2" t="inlineStr">
-        <is>
-          <t>28,1%</t>
-        </is>
-      </c>
-      <c r="L4" s="2" t="inlineStr">
-        <is>
-          <t>23,12%</t>
-        </is>
+      <c r="C4" s="5" t="n">
+        <v>0.449356320380695</v>
+      </c>
+      <c r="D4" s="5" t="n">
+        <v>3.522357059296441</v>
+      </c>
+      <c r="E4" s="5" t="n">
+        <v>-2.189508293536623</v>
+      </c>
+      <c r="F4" s="5" t="n">
+        <v>4.715136631836035</v>
+      </c>
+      <c r="G4" s="5" t="n">
+        <v>6.73409142305842</v>
+      </c>
+      <c r="H4" s="6" t="n">
+        <v>0.01328616528791032</v>
+      </c>
+      <c r="I4" s="6" t="n">
+        <v>0.1593540537395053</v>
+      </c>
+      <c r="J4" s="6" t="n">
+        <v>-0.1663154106126726</v>
+      </c>
+      <c r="K4" s="6" t="n">
+        <v>0.5287988745261901</v>
+      </c>
+      <c r="L4" s="6" t="n">
+        <v>0.4670538053887693</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n"/>
       <c r="B5" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C5" s="2" t="inlineStr">
-        <is>
-          <t>-5,25; 1,49</t>
-        </is>
-      </c>
-      <c r="D5" s="2" t="inlineStr">
-        <is>
-          <t>-5,31; 1,07</t>
-        </is>
-      </c>
-      <c r="E5" s="2" t="inlineStr">
-        <is>
-          <t>-2,91; 1,0</t>
-        </is>
-      </c>
-      <c r="F5" s="2" t="inlineStr">
-        <is>
-          <t>-1,17; 2,7</t>
-        </is>
-      </c>
-      <c r="G5" s="2" t="inlineStr">
-        <is>
-          <t>-1,04; 3,57</t>
-        </is>
-      </c>
-      <c r="H5" s="2" t="inlineStr">
-        <is>
-          <t>-40,72; 16,2</t>
-        </is>
-      </c>
-      <c r="I5" s="2" t="inlineStr">
-        <is>
-          <t>-53,4; 22,43</t>
-        </is>
-      </c>
-      <c r="J5" s="2" t="inlineStr">
-        <is>
-          <t>-50,48; 31,16</t>
-        </is>
-      </c>
-      <c r="K5" s="2" t="inlineStr">
-        <is>
-          <t>-27,0; 131,66</t>
-        </is>
-      </c>
-      <c r="L5" s="2" t="inlineStr">
-        <is>
-          <t>-15,19; 90,59</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C5" s="5" t="n">
+        <v>-8.420448308851949</v>
+      </c>
+      <c r="D5" s="5" t="n">
+        <v>-6.902146416924902</v>
+      </c>
+      <c r="E5" s="5" t="n">
+        <v>-7.919552215291893</v>
+      </c>
+      <c r="F5" s="5" t="n">
+        <v>-1.117013181426597</v>
+      </c>
+      <c r="G5" s="5" t="n">
+        <v>0.3846806764102788</v>
+      </c>
+      <c r="H5" s="6" t="n">
+        <v>-0.2200560682195306</v>
+      </c>
+      <c r="I5" s="6" t="n">
+        <v>-0.2587937171633743</v>
+      </c>
+      <c r="J5" s="6" t="n">
+        <v>-0.4842039644137591</v>
+      </c>
+      <c r="K5" s="6" t="n">
+        <v>-0.1231429522564601</v>
+      </c>
+      <c r="L5" s="6" t="n">
+        <v>0.01423748153082398</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="1" t="inlineStr">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C6" s="5" t="n">
+        <v>10.98855691616835</v>
+      </c>
+      <c r="D6" s="5" t="n">
+        <v>14.31916899299829</v>
+      </c>
+      <c r="E6" s="5" t="n">
+        <v>3.298459066159141</v>
+      </c>
+      <c r="F6" s="5" t="n">
+        <v>10.3947486809198</v>
+      </c>
+      <c r="G6" s="5" t="n">
+        <v>13.94156501851085</v>
+      </c>
+      <c r="H6" s="6" t="n">
+        <v>0.3928145914291198</v>
+      </c>
+      <c r="I6" s="6" t="n">
+        <v>0.8487908763936343</v>
+      </c>
+      <c r="J6" s="6" t="n">
+        <v>0.3547739222161233</v>
+      </c>
+      <c r="K6" s="6" t="n">
+        <v>1.768691342178125</v>
+      </c>
+      <c r="L6" s="6" t="n">
+        <v>1.241369675436526</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
         <is>
           <t>Intermedio</t>
         </is>
       </c>
-      <c r="B6" s="3" t="inlineStr">
+      <c r="B7" s="3" t="inlineStr">
         <is>
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C6" s="2" t="inlineStr">
-        <is>
-          <t>0,52</t>
-        </is>
-      </c>
-      <c r="D6" s="2" t="inlineStr">
-        <is>
-          <t>-4,86</t>
-        </is>
-      </c>
-      <c r="E6" s="2" t="inlineStr">
-        <is>
-          <t>1,6</t>
-        </is>
-      </c>
-      <c r="F6" s="2" t="inlineStr">
-        <is>
-          <t>0,96</t>
-        </is>
-      </c>
-      <c r="G6" s="2" t="inlineStr">
-        <is>
-          <t>0,37</t>
-        </is>
-      </c>
-      <c r="H6" s="2" t="inlineStr">
-        <is>
-          <t>5,36%</t>
-        </is>
-      </c>
-      <c r="I6" s="2" t="inlineStr">
-        <is>
-          <t>-52,55%</t>
-        </is>
-      </c>
-      <c r="J6" s="2" t="inlineStr">
-        <is>
-          <t>41,2%</t>
-        </is>
-      </c>
-      <c r="K6" s="2" t="inlineStr">
-        <is>
-          <t>32,75%</t>
-        </is>
-      </c>
-      <c r="L6" s="2" t="inlineStr">
-        <is>
-          <t>10,51%</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n"/>
-      <c r="B7" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C7" s="2" t="inlineStr">
-        <is>
-          <t>-2,82; 4,0</t>
-        </is>
-      </c>
-      <c r="D7" s="2" t="inlineStr">
-        <is>
-          <t>-10,44; -1,36</t>
-        </is>
-      </c>
-      <c r="E7" s="2" t="inlineStr">
-        <is>
-          <t>-0,87; 4,25</t>
-        </is>
-      </c>
-      <c r="F7" s="2" t="inlineStr">
-        <is>
-          <t>-1,26; 3,24</t>
-        </is>
-      </c>
-      <c r="G7" s="2" t="inlineStr">
-        <is>
-          <t>-2,77; 3,78</t>
-        </is>
-      </c>
-      <c r="H7" s="2" t="inlineStr">
-        <is>
-          <t>-25,44; 51,31</t>
-        </is>
-      </c>
-      <c r="I7" s="2" t="inlineStr">
-        <is>
-          <t>-74,7; -18,35</t>
-        </is>
-      </c>
-      <c r="J7" s="2" t="inlineStr">
-        <is>
-          <t>-16,53; 161,47</t>
-        </is>
-      </c>
-      <c r="K7" s="2" t="inlineStr">
-        <is>
-          <t>-32,51; 164,85</t>
-        </is>
-      </c>
-      <c r="L7" s="2" t="inlineStr">
-        <is>
-          <t>-56,98; 197,02</t>
-        </is>
+      <c r="C7" s="5" t="n">
+        <v>10.85480200408643</v>
+      </c>
+      <c r="D7" s="5" t="n">
+        <v>-4.828555434767989</v>
+      </c>
+      <c r="E7" s="5" t="n">
+        <v>8.822013486389126</v>
+      </c>
+      <c r="F7" s="5" t="n">
+        <v>4.968227772378442</v>
+      </c>
+      <c r="G7" s="5" t="n">
+        <v>8.138623376983869</v>
+      </c>
+      <c r="H7" s="6" t="n">
+        <v>0.390415321293877</v>
+      </c>
+      <c r="I7" s="6" t="n">
+        <v>-0.1941357864521575</v>
+      </c>
+      <c r="J7" s="6" t="n">
+        <v>0.9139514102597908</v>
+      </c>
+      <c r="K7" s="6" t="n">
+        <v>0.6207643394828812</v>
+      </c>
+      <c r="L7" s="6" t="n">
+        <v>0.7884819631189868</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="1" t="inlineStr">
-        <is>
-          <t>Rural</t>
-        </is>
-      </c>
+      <c r="A8" s="1" t="n"/>
       <c r="B8" s="3" t="inlineStr">
         <is>
-          <t>Estimación</t>
-        </is>
-      </c>
-      <c r="C8" s="2" t="inlineStr">
-        <is>
-          <t>5,53</t>
-        </is>
-      </c>
-      <c r="D8" s="2" t="inlineStr">
-        <is>
-          <t>5,11</t>
-        </is>
-      </c>
-      <c r="E8" s="2" t="inlineStr">
-        <is>
-          <t>-0,64</t>
-        </is>
-      </c>
-      <c r="F8" s="2" t="inlineStr">
-        <is>
-          <t>3,84</t>
-        </is>
-      </c>
-      <c r="G8" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="H8" s="2" t="inlineStr">
-        <is>
-          <t>89,99%</t>
-        </is>
-      </c>
-      <c r="I8" s="2" t="inlineStr">
-        <is>
-          <t>142,0%</t>
-        </is>
-      </c>
-      <c r="J8" s="2" t="inlineStr">
-        <is>
-          <t>-10,37%</t>
-        </is>
-      </c>
-      <c r="K8" s="2" t="inlineStr">
-        <is>
-          <t>87,65%</t>
-        </is>
-      </c>
-      <c r="L8" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C8" s="5" t="n">
+        <v>0.05791576276490343</v>
+      </c>
+      <c r="D8" s="5" t="n">
+        <v>-18.61879611474046</v>
+      </c>
+      <c r="E8" s="5" t="n">
+        <v>0.9132238917648359</v>
+      </c>
+      <c r="F8" s="5" t="n">
+        <v>-1.647858264763072</v>
+      </c>
+      <c r="G8" s="5" t="n">
+        <v>-2.750602320162162</v>
+      </c>
+      <c r="H8" s="6" t="n">
+        <v>0.006719286198795916</v>
+      </c>
+      <c r="I8" s="6" t="n">
+        <v>-0.5561865708307331</v>
+      </c>
+      <c r="J8" s="6" t="n">
+        <v>0.05835184378782841</v>
+      </c>
+      <c r="K8" s="6" t="n">
+        <v>-0.2223427030106883</v>
+      </c>
+      <c r="L8" s="6" t="n">
+        <v>-0.2496029620411744</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n"/>
       <c r="B9" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C9" s="2" t="inlineStr">
-        <is>
-          <t>-0,34; 12,27</t>
-        </is>
-      </c>
-      <c r="D9" s="2" t="inlineStr">
-        <is>
-          <t>-0,66; 10,88</t>
-        </is>
-      </c>
-      <c r="E9" s="2" t="inlineStr">
-        <is>
-          <t>-7,07; 4,38</t>
-        </is>
-      </c>
-      <c r="F9" s="2" t="inlineStr">
-        <is>
-          <t>-3,64; 9,52</t>
-        </is>
-      </c>
-      <c r="G9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="H9" s="2" t="inlineStr">
-        <is>
-          <t>-10,43; 336,65</t>
-        </is>
-      </c>
-      <c r="I9" s="2" t="inlineStr">
-        <is>
-          <t>-25,59; 763,52</t>
-        </is>
-      </c>
-      <c r="J9" s="2" t="inlineStr">
-        <is>
-          <t>-71,94; 142,71</t>
-        </is>
-      </c>
-      <c r="K9" s="2" t="inlineStr">
-        <is>
-          <t>-57,39; 526,15</t>
-        </is>
-      </c>
-      <c r="L9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C9" s="5" t="n">
+        <v>21.10474527102509</v>
+      </c>
+      <c r="D9" s="5" t="n">
+        <v>5.971081747462168</v>
+      </c>
+      <c r="E9" s="5" t="n">
+        <v>15.50998427869484</v>
+      </c>
+      <c r="F9" s="5" t="n">
+        <v>11.45671587778276</v>
+      </c>
+      <c r="G9" s="5" t="n">
+        <v>21.36137839814344</v>
+      </c>
+      <c r="H9" s="6" t="n">
+        <v>0.9144245393141582</v>
+      </c>
+      <c r="I9" s="6" t="n">
+        <v>0.3740419405547821</v>
+      </c>
+      <c r="J9" s="6" t="n">
+        <v>2.307973828854517</v>
+      </c>
+      <c r="K9" s="6" t="n">
+        <v>2.065755091011062</v>
+      </c>
+      <c r="L9" s="6" t="n">
+        <v>3.566091551394164</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>Rural</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -994,117 +879,221 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C10" s="2" t="inlineStr">
-        <is>
-          <t>-0,09</t>
-        </is>
-      </c>
-      <c r="D10" s="2" t="inlineStr">
-        <is>
-          <t>-2,05</t>
-        </is>
-      </c>
-      <c r="E10" s="2" t="inlineStr">
-        <is>
-          <t>0,11</t>
-        </is>
-      </c>
-      <c r="F10" s="2" t="inlineStr">
-        <is>
-          <t>1,24</t>
-        </is>
-      </c>
-      <c r="G10" s="2" t="inlineStr">
-        <is>
-          <t>1,08</t>
-        </is>
-      </c>
-      <c r="H10" s="2" t="inlineStr">
-        <is>
-          <t>-0,96%</t>
-        </is>
-      </c>
-      <c r="I10" s="2" t="inlineStr">
-        <is>
-          <t>-27,25%</t>
-        </is>
-      </c>
-      <c r="J10" s="2" t="inlineStr">
-        <is>
-          <t>2,55%</t>
-        </is>
-      </c>
-      <c r="K10" s="2" t="inlineStr">
-        <is>
-          <t>38,74%</t>
-        </is>
-      </c>
-      <c r="L10" s="2" t="inlineStr">
-        <is>
-          <t>22,17%</t>
-        </is>
-      </c>
+      <c r="C10" s="5" t="n">
+        <v>16.49970930243525</v>
+      </c>
+      <c r="D10" s="5" t="n">
+        <v>13.00920536308776</v>
+      </c>
+      <c r="E10" s="5" t="n">
+        <v>6.183698250102923</v>
+      </c>
+      <c r="F10" s="5" t="n">
+        <v>14.11821999405604</v>
+      </c>
+      <c r="G10" s="5" t="inlineStr"/>
+      <c r="H10" s="6" t="n">
+        <v>0.725421666530345</v>
+      </c>
+      <c r="I10" s="6" t="n">
+        <v>0.9272188853734582</v>
+      </c>
+      <c r="J10" s="6" t="n">
+        <v>0.3488490114701499</v>
+      </c>
+      <c r="K10" s="6" t="n">
+        <v>1.194745439009275</v>
+      </c>
+      <c r="L10" s="6" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n"/>
       <c r="B11" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C11" s="2" t="inlineStr">
-        <is>
-          <t>-2,28; 1,98</t>
-        </is>
-      </c>
-      <c r="D11" s="2" t="inlineStr">
-        <is>
-          <t>-4,67; 0,33</t>
-        </is>
-      </c>
-      <c r="E11" s="2" t="inlineStr">
-        <is>
-          <t>-1,57; 1,54</t>
-        </is>
-      </c>
-      <c r="F11" s="2" t="inlineStr">
-        <is>
-          <t>-0,25; 2,71</t>
-        </is>
-      </c>
-      <c r="G11" s="2" t="inlineStr">
-        <is>
-          <t>-1,07; 3,01</t>
-        </is>
-      </c>
-      <c r="H11" s="2" t="inlineStr">
-        <is>
-          <t>-21,07; 22,23</t>
-        </is>
-      </c>
-      <c r="I11" s="2" t="inlineStr">
-        <is>
-          <t>-47,89; 7,79</t>
-        </is>
-      </c>
-      <c r="J11" s="2" t="inlineStr">
-        <is>
-          <t>-28,69; 41,78</t>
-        </is>
-      </c>
-      <c r="K11" s="2" t="inlineStr">
-        <is>
-          <t>-7,4; 118,1</t>
-        </is>
-      </c>
-      <c r="L11" s="2" t="inlineStr">
-        <is>
-          <t>-17,52; 79,29</t>
-        </is>
-      </c>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C11" s="5" t="n">
+        <v>-3.009994004291392</v>
+      </c>
+      <c r="D11" s="5" t="n">
+        <v>-7.451938268899179</v>
+      </c>
+      <c r="E11" s="5" t="n">
+        <v>-9.973645146213489</v>
+      </c>
+      <c r="F11" s="5" t="n">
+        <v>-2.588041440830126</v>
+      </c>
+      <c r="G11" s="5" t="inlineStr"/>
+      <c r="H11" s="6" t="n">
+        <v>-0.1211060207380689</v>
+      </c>
+      <c r="I11" s="6" t="n">
+        <v>-0.367191418445961</v>
+      </c>
+      <c r="J11" s="6" t="n">
+        <v>-0.4256432339969798</v>
+      </c>
+      <c r="K11" s="6" t="n">
+        <v>-0.4076780006188694</v>
+      </c>
+      <c r="L11" s="6" t="inlineStr"/>
     </row>
     <row r="12">
-      <c r="A12" t="inlineStr">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C12" s="5" t="n">
+        <v>37.67130003475162</v>
+      </c>
+      <c r="D12" s="5" t="n">
+        <v>29.33669497079407</v>
+      </c>
+      <c r="E12" s="5" t="n">
+        <v>24.3031084640966</v>
+      </c>
+      <c r="F12" s="5" t="n">
+        <v>30.80215860055988</v>
+      </c>
+      <c r="G12" s="5" t="inlineStr"/>
+      <c r="H12" s="6" t="n">
+        <v>3.488394713758474</v>
+      </c>
+      <c r="I12" s="6" t="n">
+        <v>6.890585994503788</v>
+      </c>
+      <c r="J12" s="6" t="n">
+        <v>2.651491911870724</v>
+      </c>
+      <c r="K12" s="6" t="n">
+        <v>8.748514235077471</v>
+      </c>
+      <c r="L12" s="6" t="inlineStr"/>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>Estimación</t>
+        </is>
+      </c>
+      <c r="C13" s="5" t="n">
+        <v>6.465077051116336</v>
+      </c>
+      <c r="D13" s="5" t="n">
+        <v>1.119364801346887</v>
+      </c>
+      <c r="E13" s="5" t="n">
+        <v>2.731635302319634</v>
+      </c>
+      <c r="F13" s="5" t="n">
+        <v>5.94222467985239</v>
+      </c>
+      <c r="G13" s="5" t="n">
+        <v>7.241762838626678</v>
+      </c>
+      <c r="H13" s="6" t="n">
+        <v>0.2145745825772131</v>
+      </c>
+      <c r="I13" s="6" t="n">
+        <v>0.0494307650295954</v>
+      </c>
+      <c r="J13" s="6" t="n">
+        <v>0.2232112921536772</v>
+      </c>
+      <c r="K13" s="6" t="n">
+        <v>0.6668345868029244</v>
+      </c>
+      <c r="L13" s="6" t="n">
+        <v>0.5372766249200404</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C14" s="5" t="n">
+        <v>-0.5290258988471458</v>
+      </c>
+      <c r="D14" s="5" t="n">
+        <v>-6.732571641612582</v>
+      </c>
+      <c r="E14" s="5" t="n">
+        <v>-1.52292156903674</v>
+      </c>
+      <c r="F14" s="5" t="n">
+        <v>1.641717836694913</v>
+      </c>
+      <c r="G14" s="5" t="n">
+        <v>1.631327172035368</v>
+      </c>
+      <c r="H14" s="6" t="n">
+        <v>-0.01843980052678314</v>
+      </c>
+      <c r="I14" s="6" t="n">
+        <v>-0.2556305908533113</v>
+      </c>
+      <c r="J14" s="6" t="n">
+        <v>-0.1157609207038122</v>
+      </c>
+      <c r="K14" s="6" t="n">
+        <v>0.09582522296576172</v>
+      </c>
+      <c r="L14" s="6" t="n">
+        <v>0.09589411114165979</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C15" s="5" t="n">
+        <v>12.76910206023826</v>
+      </c>
+      <c r="D15" s="5" t="n">
+        <v>7.909278200776905</v>
+      </c>
+      <c r="E15" s="5" t="n">
+        <v>7.568903771432136</v>
+      </c>
+      <c r="F15" s="5" t="n">
+        <v>10.67347626062734</v>
+      </c>
+      <c r="G15" s="5" t="n">
+        <v>12.75512300476723</v>
+      </c>
+      <c r="H15" s="6" t="n">
+        <v>0.4781852407141301</v>
+      </c>
+      <c r="I15" s="6" t="n">
+        <v>0.4291409510431044</v>
+      </c>
+      <c r="J15" s="6" t="n">
+        <v>0.7497058992446436</v>
+      </c>
+      <c r="K15" s="6" t="n">
+        <v>1.499841826752642</v>
+      </c>
+      <c r="L15" s="6" t="n">
+        <v>1.177372789144862</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
@@ -1112,13 +1101,13 @@
     </row>
   </sheetData>
   <mergeCells count="7">
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A10:A12"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
     <mergeCell ref="A1:B2"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="A13:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
